--- a/log/PSOELM_extracted_result/PSOELM_slp32_result/PSOELM_slp32_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp32_result/PSOELM_slp32_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp32_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp32_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>Experiment</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>5 7 11 12 13 14 16</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1658,7 +1661,7 @@
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1916,7 +1919,7 @@
         <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,7 +2332,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,6 +2519,9 @@
       <c r="F9" t="s">
         <v>89</v>
       </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
